--- a/data/landings/cdfw/public/fish_bulletins/raw/fb132/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb132/raw/Table21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb132/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81492201-4D31-1548-AB81-955E315B795B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2024BC-0452-1E4A-8919-BB70D3B5F296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21860" yWindow="700" windowWidth="16960" windowHeight="24160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>Value</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,8 +496,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
         <v>7598391</v>
